--- a/data/TC1.xlsx
+++ b/data/TC1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\finalProject\SeleniumProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34461F69-D2F8-48B4-AF72-F457075C3145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914FC0C-056C-4D85-80D3-559784DD2469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="22770" windowHeight="11760" tabRatio="678" activeTab="5" xr2:uid="{A27EE210-AF08-4A9E-8379-F26633F48A3E}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="22770" windowHeight="11760" tabRatio="678" activeTab="2" xr2:uid="{A27EE210-AF08-4A9E-8379-F26633F48A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="133">
   <si>
     <t>Scenario</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Additional address is added</t>
   </si>
   <si>
-    <t>Ulica brestova 7</t>
-  </si>
-  <si>
     <t>Address is changed</t>
   </si>
   <si>
@@ -326,90 +323,18 @@
     <t>United States</t>
   </si>
   <si>
-    <t>3)Change Street name</t>
-  </si>
-  <si>
-    <t>4)Change first name</t>
-  </si>
-  <si>
     <t>Ivana</t>
   </si>
   <si>
-    <t>5)Change last name</t>
-  </si>
-  <si>
     <t>Simic</t>
   </si>
   <si>
-    <t>6)Change city</t>
-  </si>
-  <si>
     <t>Beograd</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
-    <t>TC011</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done with Serbian letters</t>
-  </si>
-  <si>
-    <t>Slađana</t>
-  </si>
-  <si>
-    <t>Simić</t>
-  </si>
-  <si>
-    <t>Kneževac</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done by adding wrong Zip Code (less digit)</t>
-  </si>
-  <si>
-    <t>7)Click on "Save" button</t>
-  </si>
-  <si>
-    <t>3)Change ZipCode</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done by adding wrong Zip Code (more digit)</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done by adding wrong Phone (adding / sign)</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done by adding wrong Phone (adding space)</t>
-  </si>
-  <si>
-    <t>123/58852</t>
-  </si>
-  <si>
-    <t>123 58852</t>
-  </si>
-  <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>TC013</t>
-  </si>
-  <si>
-    <t>TC014</t>
-  </si>
-  <si>
-    <t>TC015</t>
-  </si>
-  <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>Verify if Address update can be done by adding Address field in Line2</t>
-  </si>
-  <si>
-    <t>3)Add to Addresse (Line2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -443,9 +368,6 @@
     <t>Home address</t>
   </si>
   <si>
-    <t>(manual)</t>
-  </si>
-  <si>
     <t>Verify if Personal Informations can be changed</t>
   </si>
   <si>
@@ -498,12 +420,6 @@
   </si>
   <si>
     <t>TC019</t>
-  </si>
-  <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>Verify if  Wishlist with the same name can be added</t>
   </si>
   <si>
     <t>wishlist1</t>
@@ -600,18 +516,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBF123"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -742,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,12 +744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -865,9 +769,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -876,6 +777,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2144,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7F52B0-C4D6-4162-A590-C9D1C698C05A}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -2230,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
@@ -2249,7 +2156,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="31"/>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -2260,13 +2167,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2372,13 +2279,13 @@
       <c r="B15" s="3"/>
       <c r="C15" s="31"/>
       <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -2391,11 +2298,11 @@
         <v>33</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="54"/>
       <c r="G16" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -2502,16 +2409,16 @@
       <c r="B24" s="3"/>
       <c r="C24" s="31"/>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2523,11 +2430,11 @@
         <v>33</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="F25" s="54"/>
       <c r="G25" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2579,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="8"/>
@@ -2601,10 +2508,10 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
@@ -2615,11 +2522,11 @@
         <v>33</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -2650,7 +2557,7 @@
       <c r="E38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="55" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -2662,9 +2569,9 @@
       <c r="C39" s="12"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="F39" s="55"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:9">
@@ -2674,9 +2581,9 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="40"/>
+        <v>80</v>
+      </c>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="B41" s="3"/>
@@ -2721,10 +2628,10 @@
     </row>
     <row r="47" spans="1:9" ht="45">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>29</v>
@@ -2758,7 +2665,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="35"/>
@@ -2776,7 +2683,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="31"/>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2787,13 +2694,13 @@
         <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="54" t="s">
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2802,11 +2709,11 @@
       <c r="C53" s="27"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F53" s="54"/>
       <c r="G53" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2836,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0772276B-ED42-4378-88D8-2E8206521E43}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D82"/>
+      <selection activeCell="A36" sqref="A36:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2888,10 +2795,10 @@
     </row>
     <row r="2" spans="1:10" ht="63" customHeight="1" thickTop="1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
@@ -2908,10 +2815,10 @@
       <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="43"/>
+      <c r="H2" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="41"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1">
@@ -2929,11 +2836,11 @@
       <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>87</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -2943,15 +2850,15 @@
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>88</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>89</v>
       </c>
       <c r="J4" s="13"/>
     </row>
@@ -2961,14 +2868,14 @@
         <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>91</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -2976,13 +2883,13 @@
       <c r="B6" s="3"/>
       <c r="C6" s="31"/>
       <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>92</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -2993,13 +2900,13 @@
         <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
-      <c r="J7" s="50" t="s">
-        <v>129</v>
+      <c r="J7" s="48" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75">
@@ -3007,13 +2914,13 @@
       <c r="B8" s="13"/>
       <c r="C8" s="27"/>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="25"/>
       <c r="G8" s="15"/>
-      <c r="J8" s="51" t="s">
-        <v>130</v>
+      <c r="J8" s="49" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3045,23 +2952,23 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>123</v>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="45">
-      <c r="A13" s="49" t="s">
-        <v>83</v>
+      <c r="A13" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>29</v>
@@ -3080,7 +2987,7 @@
       </c>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3"/>
       <c r="C14" s="12"/>
       <c r="D14" s="4" t="s">
@@ -3102,7 +3009,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8"/>
@@ -3114,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -3125,7 +3032,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="31"/>
       <c r="D17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -3136,7 +3043,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
@@ -3147,7 +3054,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="26" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="37"/>
@@ -3158,7 +3065,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="37"/>
@@ -3191,7 +3098,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="37"/>
@@ -3202,7 +3109,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="37"/>
@@ -3213,7 +3120,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="25"/>
@@ -3234,10 +3141,10 @@
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>29</v>
@@ -3255,14 +3162,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="30">
       <c r="B29" s="3"/>
       <c r="C29" s="12"/>
       <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>36</v>
@@ -3278,24 +3185,24 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45">
+    <row r="31" spans="1:10" ht="60">
       <c r="B31" s="3"/>
       <c r="C31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75">
@@ -3326,673 +3233,6 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="60">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30">
-      <c r="B37" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
-      <c r="B39" s="3"/>
-      <c r="C39" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
-      <c r="B40" s="3"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="15"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="75">
-      <c r="A50" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30">
-      <c r="B51" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="B53" s="3"/>
-      <c r="C53" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="B54" s="3"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="4">
-        <v>5321</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="5"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="15"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" ht="75">
-      <c r="A59" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30">
-      <c r="B60" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="35"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="B62" s="3"/>
-      <c r="C62" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75">
-      <c r="B63" s="3"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="4">
-        <v>765321</v>
-      </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="15"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="15"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="5"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="75">
-      <c r="A68" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30">
-      <c r="B69" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="35"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75">
-      <c r="B71" s="3"/>
-      <c r="C71" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75">
-      <c r="B72" s="3"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="15"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="26"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="15"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="5"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="15"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:8" ht="75">
-      <c r="A77" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30">
-      <c r="B78" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="35"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75">
-      <c r="B80" s="3"/>
-      <c r="C80" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75">
-      <c r="B81" s="3"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="15"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="26"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="15"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="5"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="86" spans="1:8" ht="75">
-      <c r="A86" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" s="3"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="35"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75">
-      <c r="B89" s="3"/>
-      <c r="C89" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75">
-      <c r="B90" s="3"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="15"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="26"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4055,28 +3295,28 @@
     </row>
     <row r="2" spans="1:9" ht="45.75" thickTop="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4087,7 +3327,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="4"/>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4096,12 +3336,12 @@
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="35"/>
       <c r="H4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
@@ -4110,14 +3350,14 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="B6" s="3"/>
       <c r="C6" s="31"/>
       <c r="D6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4127,16 +3367,16 @@
         <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4146,7 +3386,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="27"/>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="37"/>
@@ -4209,7 +3449,7 @@
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="15"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="53"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="37"/>
@@ -4220,10 +3460,10 @@
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="53"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -4234,8 +3474,8 @@
       <c r="C16" s="13"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
@@ -4298,7 +3538,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="55"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="26"/>
       <c r="F22" s="37"/>
       <c r="G22" s="15"/>
@@ -4308,7 +3548,7 @@
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="53"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="37"/>
@@ -4319,10 +3559,10 @@
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="15"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="53"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -4332,9 +3572,9 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="56"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:9">
@@ -4391,7 +3631,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="26"/>
       <c r="F31" s="37"/>
       <c r="G31" s="15"/>
@@ -4400,7 +3640,7 @@
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="15"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="53"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="26"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -4410,7 +3650,7 @@
     <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="15"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="53"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="16"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -4422,9 +3662,9 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="56"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
@@ -4464,7 +3704,7 @@
       <c r="C38" s="27"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="39"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="26"/>
       <c r="H38" s="15"/>
     </row>
@@ -4474,7 +3714,7 @@
       <c r="C39" s="27"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="39"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="26"/>
       <c r="H39" s="15"/>
     </row>
@@ -4484,14 +3724,14 @@
       <c r="C40" s="13"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="39"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="15"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -4501,7 +3741,7 @@
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="15"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="16"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -4581,7 +3821,7 @@
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="15"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="53"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -4591,7 +3831,7 @@
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="15"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="53"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="16"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -4604,7 +3844,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="26"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="39"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
@@ -4614,7 +3854,7 @@
       <c r="C53" s="27"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="26"/>
       <c r="H53" s="15"/>
     </row>
@@ -4864,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108A34AE-C28F-40EE-A4F8-9548582EF95B}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4912,25 +4152,25 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickTop="1">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -4948,7 +4188,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="35"/>
@@ -4960,7 +4200,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
@@ -5016,25 +4256,25 @@
     </row>
     <row r="11" spans="1:9" ht="30">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -5052,7 +4292,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="35"/>
@@ -5064,7 +4304,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
@@ -5131,25 +4371,25 @@
     </row>
     <row r="21" spans="1:9" ht="45">
       <c r="A21" s="15" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="30"/>
@@ -5172,7 +4412,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="35"/>
@@ -5186,7 +4426,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -5196,7 +4436,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="31"/>
       <c r="D25" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H25" s="15"/>
     </row>
@@ -5207,7 +4447,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="37"/>
@@ -5219,14 +4459,14 @@
       <c r="B27" s="15"/>
       <c r="C27" s="27"/>
       <c r="D27" s="18" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="26" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H27" s="15"/>
     </row>
@@ -5262,7 +4502,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="26"/>
       <c r="F31" s="37"/>
       <c r="G31" s="15"/>
@@ -5271,7 +4511,7 @@
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="15"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="53"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="26"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -5281,7 +4521,7 @@
     <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="15"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="53"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="16"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -5293,9 +4533,9 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="56"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
@@ -5331,185 +4571,47 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="60">
-      <c r="A38" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="15"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="35"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="27"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="15"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="53"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="15"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="53"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="16"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:8">
       <c r="A52" s="15"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="26"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="39"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:8">
       <c r="A53" s="15"/>
       <c r="B53" s="13"/>
       <c r="C53" s="27"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="26"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:8">
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -5519,7 +4621,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:8">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -5529,7 +4631,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -5539,7 +4641,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5549,7 +4651,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -5559,7 +4661,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -5569,7 +4671,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:8">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -5579,7 +4681,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:8">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -5589,7 +4691,7 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:8">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -5599,7 +4701,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:8">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -5609,7 +4711,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:8">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
